--- a/社保缴纳记录.xlsx
+++ b/社保缴纳记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDoc\Git.LabourArbitration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{4D1F8417-9B8E-4F2B-B174-2365B6B14689}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A59B46BE-AAFE-4D66-A57C-0F31E509B1B3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{1955F1DD-2B6D-4ACD-BFA6-7090FACBCBD9}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="B2:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F14" activeCellId="7" sqref="C3:K3 P6 P8 C8:N12 F15:N18 C15:F18 C13:I13 F14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,6 +433,33 @@
       <c r="B3">
         <v>2001</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4">
